--- a/CSV-EJEMPLO.xlsx
+++ b/CSV-EJEMPLO.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\lectura_csv_1\Lectura_csv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Tipo</t>
   </si>
@@ -67,28 +74,23 @@
   </si>
   <si>
     <t>Clasificacion_encuesta</t>
+  </si>
+  <si>
+    <t>Cuestionario de prueba yajuuuu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -229,48 +231,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -281,26 +283,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -426,7 +487,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -435,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -444,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -508,8 +569,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -517,7 +578,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -525,7 +586,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -544,7 +605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -552,7 +613,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -580,7 +641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,7 +849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,9 +862,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -820,7 +887,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -839,7 +906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +1010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,9 +1153,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1102,7 +1175,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1121,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1328,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1354,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1380,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1406,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1432,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,142 +1445,152 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:IR6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="252" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:252" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="32.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:252" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>6</v>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="IR2"/>
     </row>
-    <row r="3" ht="32.35" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:252" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="IR3"/>
     </row>
-    <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:252" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="IR4"/>
     </row>
-    <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:252" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="IR5"/>
     </row>
-    <row r="6" ht="32.35" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:252" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="IR6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1515,114 +1598,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="12">
         <v>0</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="32.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="32.35" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
